--- a/datasupport/hyp2-3.xlsx
+++ b/datasupport/hyp2-3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Lazada</t>
   </si>
@@ -192,17 +192,20 @@
   </si>
   <si>
     <t>ไม่รู้</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -228,15 +231,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,7 +329,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -358,7 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,25 +538,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E6:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:10">
       <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +565,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:10">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -578,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:10">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -596,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:10">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -614,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:10">
       <c r="E10" t="s">
         <v>7</v>
       </c>
@@ -632,7 +636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:10">
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -650,7 +654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:10">
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -668,7 +672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:10">
       <c r="E13" t="s">
         <v>10</v>
       </c>
@@ -686,7 +690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:10">
       <c r="E14" t="s">
         <v>11</v>
       </c>
@@ -704,7 +708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:10">
       <c r="E15" t="s">
         <v>12</v>
       </c>
@@ -722,7 +726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:10">
       <c r="E16" t="s">
         <v>13</v>
       </c>
@@ -740,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
         <v>14</v>
       </c>
@@ -768,25 +772,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:K16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J7" sqref="J7:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="6:11">
       <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
@@ -795,7 +799,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="6:11">
       <c r="G6" t="s">
         <v>0</v>
       </c>
@@ -812,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="6:11">
       <c r="F7" t="s">
         <v>15</v>
       </c>
@@ -825,11 +829,14 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
         <v>16</v>
       </c>
@@ -842,11 +849,14 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -859,11 +869,14 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
         <v>23</v>
       </c>
@@ -873,11 +886,14 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -890,11 +906,14 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
         <v>20</v>
       </c>
@@ -907,11 +926,14 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
         <v>21</v>
       </c>
@@ -921,11 +943,14 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="6:11">
       <c r="F14" t="s">
         <v>22</v>
       </c>
@@ -935,8 +960,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11">
       <c r="F15" t="s">
         <v>18</v>
       </c>
@@ -949,8 +977,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="6:11">
       <c r="F16" t="s">
         <v>34</v>
       </c>
@@ -962,6 +993,9 @@
       </c>
       <c r="I16">
         <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -976,25 +1010,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:13">
       <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1038,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:13">
       <c r="H5" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:13">
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -1041,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:13">
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -1061,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:13">
       <c r="G8" t="s">
         <v>27</v>
       </c>
@@ -1081,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:13">
       <c r="G9" t="s">
         <v>28</v>
       </c>
@@ -1101,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:13">
       <c r="G10" t="s">
         <v>29</v>
       </c>
@@ -1121,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:13">
       <c r="G11" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:13">
       <c r="G12" t="s">
         <v>31</v>
       </c>
@@ -1161,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:13">
       <c r="G13" t="s">
         <v>32</v>
       </c>
@@ -1181,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:13">
       <c r="G14" t="s">
         <v>33</v>
       </c>
@@ -1210,23 +1244,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F4:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="6:11">
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1235,7 +1269,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="6:11">
       <c r="G5" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="6:11">
       <c r="F6" t="s">
         <v>36</v>
       </c>
@@ -1262,8 +1296,17 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11">
       <c r="F7" t="s">
         <v>37</v>
       </c>
@@ -1273,8 +1316,17 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
         <v>38</v>
       </c>
@@ -1284,8 +1336,17 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
         <v>39</v>
       </c>
@@ -1295,8 +1356,17 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
         <v>40</v>
       </c>
@@ -1306,8 +1376,17 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
         <v>41</v>
       </c>
@@ -1315,10 +1394,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
         <v>42</v>
       </c>
@@ -1328,8 +1416,17 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
         <v>43</v>
       </c>
@@ -1337,6 +1434,15 @@
         <v>1</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
@@ -1349,22 +1455,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E4:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:11">
       <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1373,7 +1479,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:11">
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -1391,7 +1497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:11">
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>45</v>
@@ -1412,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:11">
       <c r="F7" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:11">
       <c r="F8" t="s">
         <v>47</v>
       </c>
@@ -1452,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:11">
       <c r="F9" t="s">
         <v>48</v>
       </c>
@@ -1472,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:11">
       <c r="F10" t="s">
         <v>49</v>
       </c>
@@ -1489,7 +1595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:11">
       <c r="F11" t="s">
         <v>50</v>
       </c>
